--- a/biology/Zoologie/Ibis_malgache/Ibis_malgache.xlsx
+++ b/biology/Zoologie/Ibis_malgache/Ibis_malgache.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Threskiornis bernieri
 L’Ibis malgache (Threskiornis bernieri) est une espèce d’oiseaux de la famille des Threskiornithidae. Elle a été séparée de l’Ibis sacré (T. aethiopicus) dont elle est distinguée par ses yeux bleus.
@@ -513,7 +525,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il ressemble beaucoup à l'ibis sacré africain Treskiornis aethiopicus. Son plumage est blanc, avec des plumes ornementales noires sur la tête et la queue. Le bout des ailes et le bas de sa queue sont noirs.
 Le cou et la tête sont dénudés avec une peau fripée de couleur noire.
@@ -545,9 +559,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est moins grégaire, soit il vit en couple ou en solitaire[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est moins grégaire, soit il vit en couple ou en solitaire.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit à Madagascar, il fréquente les zones humides en particulier les embouchures, lacs, et mangroves.
 </t>
@@ -607,7 +625,9 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon l'IUCN, il est classifié dans les espèces en danger mais ne présente aucun mesure particulière de protection à  Madagascar. Les principales  menaces sont la  chasse et les collectes des œufs et des oisillons dans leurs nids.
 </t>
